--- a/data/income_statement/3digits/total/771_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/771_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>771-Renting and leasing of motor vehicles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>771-Renting and leasing of motor vehicles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1964388.77298</v>
@@ -956,37 +862,42 @@
         <v>2267546.20074</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>3024748.57359</v>
+        <v>3025093.86985</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3626205.553989999</v>
+        <v>3629126.66019</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4787125.1578</v>
+        <v>4787791.143399999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>6453373.82505</v>
+        <v>6458264.470620001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>7650250.79584</v>
+        <v>8125137.8598</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>10133257.44039</v>
+        <v>10138505.03487</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>13322577.64574</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>16952424.88306</v>
+        <v>16976099.83201</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>17662550.61866</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>17763119.48413</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>22156806.634</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1862124.70021</v>
@@ -995,37 +906,42 @@
         <v>2049873.15669</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2825130.87486</v>
+        <v>2825476.17112</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3382319.22723</v>
+        <v>3385240.33343</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>4436818.26838</v>
+        <v>4437419.81337</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>6002715.697280001</v>
+        <v>6007512.931989999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>6948992.18824</v>
+        <v>7417800.694420001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>9398458.57801</v>
+        <v>9403132.111550001</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>12216045.67103</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>16198469.38316</v>
+        <v>16216576.02189</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>16848399.4209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>16941522.44451</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>20956758.912</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>29539.85323</v>
@@ -1046,7 +962,7 @@
         <v>49234.28797</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>43556.99621</v>
+        <v>43893.28779</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>30400.0746</v>
@@ -1055,19 +971,24 @@
         <v>47223.1003</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>81027.3275</v>
+        <v>86054.01639000002</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>70895.92975</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>75764.06837000001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>175425.95</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>72724.21953999999</v>
+        <v>72724.21954000001</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>187443.35472</v>
@@ -1079,31 +1000,36 @@
         <v>201217.75038</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>293663.87099</v>
+        <v>293728.3116</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>401423.8398</v>
+        <v>401517.25066</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>657701.61139</v>
+        <v>663443.87759</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>704398.78778</v>
+        <v>704972.84872</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>1059308.87441</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>672928.1723999999</v>
+        <v>673469.79373</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>743255.26801</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>745832.9712499999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1024621.772</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>16123.12501</v>
@@ -1124,25 +1050,30 @@
         <v>40907.54265</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>54484.57899</v>
+        <v>56652.22628</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>68641.4675</v>
+        <v>68650.48089000001</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>108101.02351</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>193998.07657</v>
+        <v>194272.24135</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>218656.22228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>218748.40844</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>369025.456</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>12766.31304</v>
@@ -1163,25 +1094,30 @@
         <v>37677.18949</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>48752.31326</v>
+        <v>50919.96055</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>64572.90744</v>
+        <v>64579.54787</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>103341.63102</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>167708.83743</v>
+        <v>167983.00221</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>185255.23962</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>185297.43551</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>285134.943</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1016.35867</v>
@@ -1214,19 +1150,24 @@
         <v>5556.61107</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>5912.07965</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5958.071150000001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>3052.588</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>2340.4533</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>848.67697</v>
+        <v>848.6769700000001</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>115.53172</v>
@@ -1235,16 +1176,16 @@
         <v>673.91752</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>633.96674</v>
+        <v>633.9667400000001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>862.1261499999999</v>
+        <v>862.1261500000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>946.17106</v>
+        <v>946.1710599999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1422.80937</v>
+        <v>1425.18233</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>1887.03998</v>
@@ -1253,13 +1194,18 @@
         <v>20732.62807</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>27488.90301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>27492.90178</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>80837.925</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1948265.64797</v>
@@ -1268,37 +1214,42 @@
         <v>2246340.12816</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>3002475.92521</v>
+        <v>3002821.22147</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>3599071.40574</v>
+        <v>3601992.51194</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4761427.07699</v>
+        <v>4762093.06259</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>6412466.2824</v>
+        <v>6417356.927970001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>7595766.21685</v>
+        <v>8068485.63352</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>10064615.97289</v>
+        <v>10069854.55398</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>13214476.62223</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>16758426.80649</v>
+        <v>16781827.59066</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>17443894.39638</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>17544371.07569</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>21787781.178</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1404529.90607</v>
@@ -1307,37 +1258,42 @@
         <v>1850262.23071</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2138980.50864</v>
+        <v>2139277.96457</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2855005.30094</v>
+        <v>2857468.31347</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3511209.50216</v>
+        <v>3511923.73535</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>5553131.589269999</v>
+        <v>5559682.7579</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>6075573.385619999</v>
+        <v>6485212.33044</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>8126989.5937</v>
+        <v>8130665.352960001</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>10439255.96149</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>12545717.89273</v>
+        <v>12567816.89172</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>13348043.04466</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>13434324.19304</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>18646374.885</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>14111.6419</v>
@@ -1361,31 +1317,36 @@
         <v>20467.85883</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>47767.7807</v>
+        <v>47767.8122</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>40249.09778</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>44451.78718</v>
+        <v>48337.15094</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>110546.1172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>122991.92526</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>109759.754</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>283451.48139</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>348294.5947</v>
+        <v>348294.5947000001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>516578.5845200001</v>
+        <v>516647.91965</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>636025.6330800001</v>
@@ -1394,10 +1355,10 @@
         <v>752949.23826</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1109670.10678</v>
+        <v>1110181.96607</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1251161.51397</v>
+        <v>1252343.80242</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>1811451.3598</v>
@@ -1406,16 +1367,21 @@
         <v>2473716.98748</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2897711.2272</v>
+        <v>2906206.4484</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3381067.40939</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3424726.89018</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5631853.786</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1090530.58435</v>
@@ -1424,37 +1390,42 @@
         <v>1431992.09298</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1515983.71703</v>
+        <v>1516211.83783</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2015899.93491</v>
+        <v>2018362.94744</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2438927.48766</v>
+        <v>2439641.72085</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3917575.31651</v>
+        <v>3923590.78635</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>4331333.66848</v>
+        <v>4370440.20558</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>5225622.58957</v>
+        <v>5229298.31733</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>6760856.31101</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>7935329.50162</v>
+        <v>7944817.547320001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>8934043.002499999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>8961130.155169999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>11679890.964</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>16436.19843</v>
@@ -1463,7 +1434,7 @@
         <v>48224.17324</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>80902.93893999999</v>
+        <v>80902.93893999998</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>166617.96878</v>
@@ -1472,10 +1443,10 @@
         <v>272167.71232</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>500907.7233299999</v>
+        <v>500931.56283</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>472610.34434</v>
+        <v>841960.46361</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>1042147.86363</v>
@@ -1484,55 +1455,65 @@
         <v>1164433.56522</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1668225.37673</v>
+        <v>1668455.74506</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>922386.5155699999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>925475.2224300001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1224870.381</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>543735.7419</v>
+        <v>543735.7419000001</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>396077.89745</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>863495.41657</v>
+        <v>863543.2568999998</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>744066.1048000001</v>
+        <v>744524.1984700001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1250217.57483</v>
+        <v>1250169.32724</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>859334.6931299999</v>
+        <v>857674.1700699999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1520192.83123</v>
+        <v>1583273.30308</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1937626.37919</v>
+        <v>1939189.20102</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2775220.66074</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>4212708.91376</v>
+        <v>4214010.69894</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>4095851.35172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4110046.88265</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3141406.293</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>336422.12392</v>
@@ -1541,37 +1522,42 @@
         <v>418676.07351</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>486494.75178</v>
+        <v>486547.3829</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>610667.7585199999</v>
+        <v>611055.2748100001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>766604.7860999999</v>
+        <v>767160.21954</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1014137.06771</v>
+        <v>1015092.98253</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1214801.00606</v>
+        <v>1254733.47333</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1533664.34424</v>
+        <v>1533857.67424</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1793606.61181</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2254181.40524</v>
+        <v>2258908.95039</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2256026.82771</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2274605.53432</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2693619.929</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>4.60403</v>
@@ -1601,16 +1587,21 @@
         <v>57.45707</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>506.20507</v>
+        <v>510.40915</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>697.23303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>793.57128</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>294.982</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>62721.23471</v>
@@ -1628,67 +1619,77 @@
         <v>177808.08778</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>280657.8491000001</v>
+        <v>280977.91199</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>322112.6193</v>
+        <v>342183.0894</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>408707.71412</v>
+        <v>408708.79983</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>511261.8459800001</v>
+        <v>511261.84598</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>701172.84753</v>
+        <v>702418.3113499999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>542893.1494400001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>546844.2151199999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>629823.366</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>273696.28518</v>
+        <v>273696.2851799999</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>327738.10863</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>374607.5276799999</v>
+        <v>374660.1588</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>462242.93508</v>
+        <v>462630.45137</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>587952.1708600001</v>
+        <v>588507.6043</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>730956.2131099999</v>
+        <v>731592.06504</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>891543.2247500001</v>
+        <v>911405.22192</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1124888.18855</v>
+        <v>1125080.43284</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1282287.30876</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1552502.35264</v>
+        <v>1555980.22989</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1712436.44524</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1726967.74792</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2063501.581</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>207313.61798</v>
@@ -1697,37 +1698,42 @@
         <v>-22598.17606</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>377000.66479</v>
+        <v>376995.874</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>133398.34628</v>
+        <v>133468.92366</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>483612.78873</v>
+        <v>483009.1077</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-154802.37458</v>
+        <v>-157418.81246</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>305391.82517</v>
+        <v>328539.82975</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>403962.0349500001</v>
+        <v>405331.52678</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>981614.04893</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1958527.50852</v>
+        <v>1955101.74855</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1839824.52401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1835441.34833</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>447786.364</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>465029.69261</v>
@@ -1739,34 +1745,39 @@
         <v>465282.3316799999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>585584.2690100002</v>
+        <v>585584.26901</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>733611.1537200001</v>
+        <v>733619.7747899999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1295278.05582</v>
+        <v>1295305.26449</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1985897.91198</v>
+        <v>2010477.08378</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1609750.687</v>
+        <v>1609793.42303</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>3344138.60921</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>7299455.160730001</v>
+        <v>7299507.645740001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>5542073.57778</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>5542810.25936</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3611091.872</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>2127.524</v>
@@ -1778,7 +1789,7 @@
         <v>60.40393</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>838.5011700000001</v>
+        <v>838.50117</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>3332.46096</v>
@@ -1793,7 +1804,7 @@
         <v>3322.01012</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>4158.899240000001</v>
+        <v>4158.89924</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>7994.0459</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>5860.37435</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>1679.24</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>17008.25954</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>10302.555</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>8484.532429999999</v>
@@ -1859,16 +1880,16 @@
         <v>17316.77676</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>20844.85387</v>
+        <v>20850.54347</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>37078.41869000001</v>
+        <v>37078.41869</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>57753.94159</v>
+        <v>58302.39297</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>72388.75722</v>
+        <v>72390.74782</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>100572.82459</v>
@@ -1877,22 +1898,27 @@
         <v>192988.42524</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>224871.68715</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>225021.29155</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>284852.935</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>2997.355009999999</v>
+        <v>2997.35501</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>6057.026849999999</v>
+        <v>6057.02685</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>7439.792080000001</v>
+        <v>7439.79208</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>9789.44196</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>2354.90771</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>2494.072</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>5459.65987</v>
@@ -1955,13 +1986,18 @@
         <v>13874.71751</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>35934.92445000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>36030.92445000001</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>34613.447</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>322.44548</v>
@@ -1970,19 +2006,19 @@
         <v>670.54603</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>976.7464399999999</v>
+        <v>976.74644</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>319.9907900000001</v>
+        <v>319.99079</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>443.59864</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>6429.62535</v>
+        <v>6429.625349999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>3575.972150000001</v>
+        <v>3575.97215</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>9625.397849999999</v>
@@ -1994,19 +2030,24 @@
         <v>36257.53177</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>12092.70439</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>12149.43375</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>14994.279</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>360276.2300199999</v>
+        <v>360276.23002</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>305793.1081799999</v>
+        <v>305793.10818</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>286540.85679</v>
@@ -2015,31 +2056,36 @@
         <v>375110.57232</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>469261.36669</v>
+        <v>469261.82291</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>795842.8308999998</v>
+        <v>795852.2075199999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1334229.50239</v>
+        <v>1352122.76463</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>736595.2445599999</v>
+        <v>736634.2115900001</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>2245465.807259999</v>
+        <v>2245465.80726</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>5732130.835459999</v>
+        <v>5732130.83546</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>4285835.56476</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>4285879.31786</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1353918.052</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0.5</v>
@@ -2060,7 +2106,7 @@
         <v>446.2314</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>293.5470500000001</v>
+        <v>293.54705</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>10.79019</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1783.89191</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>13.46616</v>
@@ -2093,7 +2144,7 @@
         <v>69.29992</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>154.78683</v>
+        <v>278.97948</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>125.57967</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>5613.632860000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>117.687</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>85347.97964000001</v>
@@ -2132,31 +2188,36 @@
         <v>178446.19475</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>221822.94259</v>
+        <v>221701.22519</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>436580.49658</v>
+        <v>436598.32863</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>569957.26955</v>
+        <v>576094.72773</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>759805.2922799999</v>
+        <v>759807.0706800001</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>943699.9527</v>
+        <v>943699.9526999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1305983.68391</v>
+        <v>1306036.16892</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>950717.63066</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>951108.22538</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1908119.605</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>490442.94778</v>
@@ -2165,37 +2226,42 @@
         <v>327120.4664</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>645764.63486</v>
+        <v>645764.6349699999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>373744.63218</v>
+        <v>373744.63219</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>994092.0374199999</v>
+        <v>994118.3957199999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>806843.7750599999</v>
+        <v>806899.7046800001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1880008.47533</v>
+        <v>1922936.64916</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1724869.99778</v>
+        <v>1724909.42842</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>3776678.775390001</v>
+        <v>3776678.77539</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>8827047.73435</v>
+        <v>8827111.52406</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>5821925.339349999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>5821972.637800001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2531395.784</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1328.66852</v>
@@ -2204,7 +2270,7 @@
         <v>1660.51819</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>6422.74899</v>
+        <v>6422.748989999999</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>11061.03332</v>
@@ -2216,10 +2282,10 @@
         <v>3894.69722</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>6935.48249</v>
+        <v>7641.589859999999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>10075.67796</v>
+        <v>10078.09404</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>11066.93739</v>
@@ -2228,19 +2294,24 @@
         <v>10063.5758</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>11932.95287</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>11943.88519</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>9732.442999999999</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>17450.03987</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>9294.503299999998</v>
+        <v>9294.5033</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>5468.16858</v>
@@ -2255,7 +2326,7 @@
         <v>18809.35969</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>22711.13689</v>
+        <v>22771.13689</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>34948.91802</v>
@@ -2264,16 +2335,21 @@
         <v>43863.5069</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>64035.55827</v>
+        <v>64035.55826999999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>104613.08264</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>104884.28722</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>48520.993</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>332.66028</v>
@@ -2291,7 +2367,7 @@
         <v>382.18187</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>350.3369900000001</v>
+        <v>350.33699</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>2135.55156</v>
@@ -2306,13 +2382,18 @@
         <v>8837.06107</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>841.85511</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>853.1769099999999</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>72.04900000000001</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>383187.3596</v>
@@ -2327,16 +2408,16 @@
         <v>271539.20331</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>871745.72464</v>
+        <v>871747.33164</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>584880.87126</v>
+        <v>584882.13614</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1643966.38415</v>
+        <v>1666112.38629</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1340166.10944</v>
+        <v>1340197.49433</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>3303425.29996</v>
@@ -2345,13 +2426,18 @@
         <v>8234130.51392</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>4902019.22536</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>4902016.11106</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2197131.29</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>2.62997</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1788.539</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,50 +2516,60 @@
       <c r="M42" s="48" t="n">
         <v>7.11122</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>88141.58953999997</v>
+        <v>88141.58953999999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>82891.52886000002</v>
+        <v>82891.52886000001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>106219.69832</v>
+        <v>106219.69843</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>77695.80602</v>
+        <v>77695.80603000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>103840.03053</v>
+        <v>103864.78183</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>198043.33638</v>
+        <v>198098.00112</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>204038.40253</v>
+        <v>224054.46685</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>330224.8123299999</v>
+        <v>330230.442</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>390009.31519</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>509969.70766</v>
+        <v>510033.49737</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>802511.1121499999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>802268.0662</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>274150.47</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>209635.99121</v>
@@ -2477,37 +2578,42 @@
         <v>199375.36171</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>308768.60704</v>
+        <v>308769.70967</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>281915.9619000001</v>
+        <v>281932.64821</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>438686.03903</v>
+        <v>438702.76748</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>527451.93822</v>
+        <v>527970.8261599999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>764489.6148099999</v>
+        <v>774181.7374099999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>919496.48775</v>
+        <v>921092.18801</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1550581.52026</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1864720.19111</v>
+        <v>1864793.93346</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2516900.49392</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2525278.45848</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2358627.213</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>198786.0139</v>
@@ -2516,37 +2622,42 @@
         <v>182628.54126</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>284349.45282</v>
+        <v>284350.55545</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>250539.46508</v>
+        <v>250556.15139</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>389711.3202599999</v>
+        <v>389728.0487100001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>470773.23667</v>
+        <v>471292.1246099999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>683496.49861</v>
+        <v>693188.62121</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>836010.0906600001</v>
+        <v>837605.7909200001</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1427934.85962</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1687084.16408</v>
+        <v>1687157.90643</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2272926.53704</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2278659.91726</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2101568.017</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>10849.97731</v>
@@ -2561,16 +2672,16 @@
         <v>31376.49682</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>48974.71877000001</v>
+        <v>48974.71876999999</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>56678.70155</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>80993.11619999999</v>
+        <v>80993.1162</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>83486.39708999998</v>
+        <v>83486.39709</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>122646.66064</v>
@@ -2579,13 +2690,18 @@
         <v>177636.02703</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>243973.95688</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>246618.54122</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>257059.196</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>-27735.6284</v>
@@ -2594,76 +2710,86 @@
         <v>-119521.43757</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-112250.24543</v>
+        <v>-112256.13896</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>63322.02120999998</v>
+        <v>63375.91226999999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-215554.134</v>
+        <v>-216192.2807100001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-193820.03204</v>
+        <v>-196984.07881</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-353208.35299</v>
+        <v>-358101.47304</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-630653.7635800001</v>
+        <v>-630876.66662</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-1001507.63751</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-1433785.25621</v>
+        <v>-1437296.06323</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-956927.7314800001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-968999.48859</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-831144.7610000001</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>75777.97678</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>96257.41471000001</v>
+        <v>96257.41471</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>182443.04347</v>
+        <v>182468.72228</v>
       </c>
       <c r="F48" s="47" t="n">
         <v>179567.90713</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>310368.84303</v>
+        <v>310415.57025</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>446669.86247</v>
+        <v>447772.8248599999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>454789.1229600001</v>
+        <v>463954.68419</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>601231.03021</v>
+        <v>601763.1830600001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>891367.8966900001</v>
+        <v>891367.89669</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1075378.54213</v>
+        <v>1075440.56663</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>995523.61165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1000566.95725</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1633267.828</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1487.87684</v>
@@ -2684,13 +2810,13 @@
         <v>2654.97435</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>2179.84982</v>
+        <v>2414.49384</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>21138.02431</v>
+        <v>21174.02431</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>5199.38014</v>
+        <v>5199.380139999999</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>3044.15913</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>6336.51336</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>14896.929</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>74290.09994</v>
@@ -2711,76 +2842,86 @@
         <v>95201.83229000001</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>158845.98671</v>
+        <v>158871.66552</v>
       </c>
       <c r="F50" s="48" t="n">
         <v>178137.57148</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>309071.91369</v>
+        <v>309118.64091</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>444014.8881200001</v>
+        <v>445117.85051</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>452609.27314</v>
+        <v>461540.19035</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>580093.0059000001</v>
+        <v>580589.1587499999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>886168.5165500001</v>
+        <v>886168.5165499999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1072334.383</v>
+        <v>1072396.4075</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>989187.0982900001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>994230.4438900001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1618370.899</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>63144.17169</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>82933.30735</v>
+        <v>82933.30734999999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>114368.07535</v>
+        <v>114429.87839</v>
       </c>
       <c r="F51" s="47" t="n">
         <v>51709.07967</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>81371.16131</v>
+        <v>81948.16465999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>136206.18571</v>
+        <v>137500.80189</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>118394.69828</v>
+        <v>118895.91956</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>178488.9235</v>
+        <v>179312.69005</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>262799.5178</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>409857.6752</v>
+        <v>409890.6392799999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>428913.68587</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>431920.28974</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>305832.29</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>686.16664</v>
@@ -2792,13 +2933,13 @@
         <v>133.19345</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>597.1388300000001</v>
+        <v>597.13883</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>633.94814</v>
+        <v>1130.78578</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>7606.4769</v>
+        <v>7606.476900000001</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>152.30244</v>
@@ -2810,22 +2951,27 @@
         <v>847.85104</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>2335.418889999999</v>
+        <v>2335.41889</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1529.50876</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1554.50876</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>8967.151</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>2501.7626</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>729.2837399999999</v>
+        <v>729.28374</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>1588.4866</v>
@@ -2834,109 +2980,124 @@
         <v>1950.11051</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1455.30704</v>
+        <v>1479.44135</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2016.4528</v>
+        <v>2020.9245</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>4531.773859999999</v>
+        <v>4553.96039</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>7365.856049999999</v>
+        <v>7368.837189999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>7060.087350000001</v>
+        <v>7060.08735</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>3146.62418</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>6305.77137</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>6355.45633</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>10517.727</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>59956.24245</v>
+        <v>59956.24245000001</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>82156.18441</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>112646.3953</v>
+        <v>112708.19834</v>
       </c>
       <c r="F54" s="48" t="n">
         <v>49161.83033</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>79281.90613</v>
+        <v>79337.93752999998</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>126583.25601</v>
+        <v>127873.40049</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>113710.62198</v>
+        <v>114189.65673</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>164801.58455</v>
+        <v>165622.36996</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>254891.57941</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>404375.63213</v>
+        <v>404408.59621</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>421078.40574</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>424010.32465</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>286347.412</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-15101.82331</v>
+        <v>-15101.82330999999</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>-106197.33021</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-44175.27731</v>
+        <v>-44217.29507</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>191180.84867</v>
+        <v>191234.73973</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>13443.54772</v>
+        <v>12275.12488</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>116643.64472</v>
+        <v>113287.94416</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-16813.92831</v>
+        <v>-13042.70841</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-207911.65687</v>
+        <v>-208426.17361</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-372939.25862</v>
+        <v>-372939.2586199999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-768264.3892799999</v>
+        <v>-771746.13588</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-390317.8057</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-400352.82108</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>496290.777</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>6358.968949999999</v>
@@ -2945,37 +3106,42 @@
         <v>6160.10856</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>15181.26388</v>
+        <v>15184.84656</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>13250.54029</v>
+        <v>13261.32073</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>17427.46696</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>24559.97222</v>
+        <v>24561.81516</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>42981.1571</v>
+        <v>43759.03443000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>27445.26269</v>
+        <v>27476.88085</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>38770.70645000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>66366.01736999999</v>
+        <v>66412.05640999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>82474.98444</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>83012.44047</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>129535.328</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-21460.79226</v>
@@ -2984,34 +3150,37 @@
         <v>-112357.43877</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-59356.54119</v>
+        <v>-59402.14163</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>177930.30838</v>
+        <v>177973.419</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-3983.919240000006</v>
+        <v>-5152.342080000013</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>92083.67249999999</v>
+        <v>88726.12900000002</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-59795.08541</v>
+        <v>-56801.74284</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-235356.91956</v>
+        <v>-235903.05446</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-411709.96507</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-834630.4066500001</v>
+        <v>-838158.1922899999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-472792.7901400001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-483365.2615500001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>366755.449</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1535</v>
@@ -3038,34 +3210,37 @@
         <v>1642</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2094</v>
+        <v>2098</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2323</v>
+        <v>2334</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2462</v>
+        <v>2489</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2586</v>
+        <v>2601</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>2896</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3147</v>
+        <v>3285</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3428</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3766</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>